--- a/draft/figure/Graph/realtask/xls/Memcpy_cpuload_HtoD.xlsx
+++ b/draft/figure/Graph/realtask/xls/Memcpy_cpuload_HtoD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-440" windowWidth="12680" windowHeight="15360" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="28800" yWindow="-440" windowWidth="38400" windowHeight="21600" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="9" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="GPC4" sheetId="14" r:id="rId6"/>
     <sheet name="グラフ" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1451,11 +1454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103589464"/>
-        <c:axId val="-2104124104"/>
+        <c:axId val="2135531816"/>
+        <c:axId val="2135537576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103589464"/>
+        <c:axId val="2135531816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1497,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104124104"/>
+        <c:crossAx val="2135537576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104124104"/>
+        <c:axId val="2135537576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1534,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103589464"/>
+        <c:crossAx val="2135531816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3587,11 +3590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127147128"/>
-        <c:axId val="-2067777000"/>
+        <c:axId val="2133819512"/>
+        <c:axId val="2133149784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127147128"/>
+        <c:axId val="2133819512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3633,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067777000"/>
+        <c:crossAx val="2133149784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3639,7 +3642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067777000"/>
+        <c:axId val="2133149784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3670,7 +3673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127147128"/>
+        <c:crossAx val="2133819512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4773,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066769656"/>
-        <c:axId val="-2127093160"/>
+        <c:axId val="2132927928"/>
+        <c:axId val="2133086488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066769656"/>
+        <c:axId val="2132927928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4819,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127093160"/>
+        <c:crossAx val="2133086488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4825,7 +4828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127093160"/>
+        <c:axId val="2133086488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4856,7 +4859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066769656"/>
+        <c:crossAx val="2132927928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6825,11 +6828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098069576"/>
-        <c:axId val="-2139620312"/>
+        <c:axId val="2133586936"/>
+        <c:axId val="2133592568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098069576"/>
+        <c:axId val="2133586936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,7 +6872,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139620312"/>
+        <c:crossAx val="2133592568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6878,7 +6881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139620312"/>
+        <c:axId val="2133592568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -6910,7 +6913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098069576"/>
+        <c:crossAx val="2133586936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6977,9 +6980,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -7978,11 +7981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066885416"/>
-        <c:axId val="-2127479688"/>
+        <c:axId val="2123841192"/>
+        <c:axId val="2123846712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066885416"/>
+        <c:axId val="2123841192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8013,25 +8016,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127479688"/>
+        <c:crossAx val="2123846712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127479688"/>
+        <c:axId val="2123846712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -8046,13 +8049,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8063,17 +8066,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066885416"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123841192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -8081,10 +8087,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0816846994845069"/>
-          <c:y val="0.234156366505267"/>
-          <c:w val="0.111360864064654"/>
-          <c:h val="0.276965642064879"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8093,17 +8099,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -8137,9 +8160,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -9138,11 +9161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067178488"/>
-        <c:axId val="-2126891752"/>
+        <c:axId val="2127413016"/>
+        <c:axId val="2119706472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067178488"/>
+        <c:axId val="2127413016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9173,25 +9196,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126891752"/>
+        <c:crossAx val="2119706472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126891752"/>
+        <c:axId val="2119706472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -9206,13 +9229,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9223,17 +9246,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067178488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127413016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -9241,10 +9267,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.084082781019279"/>
-          <c:y val="0.224333183794069"/>
-          <c:w val="0.113758945599426"/>
-          <c:h val="0.278930278607119"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9253,17 +9279,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -9471,6 +9514,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58711,8 +58777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
